--- a/Code/Results/Cases/Case_0_190/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_190/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1566866180416042</v>
+        <v>0.0507701114283492</v>
       </c>
       <c r="D2">
-        <v>0.0007790016065376548</v>
+        <v>0.0002214791267642902</v>
       </c>
       <c r="E2">
-        <v>1.53970234696358</v>
+        <v>0.4330778936147368</v>
       </c>
       <c r="F2">
-        <v>1.411838194398925</v>
+        <v>0.6071500647315276</v>
       </c>
       <c r="G2">
-        <v>1.470788636571314</v>
+        <v>0.5211106091079785</v>
       </c>
       <c r="H2">
-        <v>0.714652236411581</v>
+        <v>0.4720876509364018</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>2.873581687696344</v>
       </c>
       <c r="O2">
-        <v>4.569781030130116</v>
+        <v>1.947170118530437</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1350901182877493</v>
+        <v>0.0449891660834254</v>
       </c>
       <c r="D3">
-        <v>0.0006217117501965408</v>
+        <v>0.0002074950308945667</v>
       </c>
       <c r="E3">
-        <v>1.315835099816113</v>
+        <v>0.3774308521777527</v>
       </c>
       <c r="F3">
-        <v>1.220407820569577</v>
+        <v>0.5604074233862946</v>
       </c>
       <c r="G3">
-        <v>1.266870858494258</v>
+        <v>0.4694198853888736</v>
       </c>
       <c r="H3">
-        <v>0.6243425658030048</v>
+        <v>0.4524053179119107</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679454</v>
       </c>
       <c r="O3">
-        <v>3.947959874792616</v>
+        <v>1.795960797759165</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1220160928854597</v>
+        <v>0.04145654160221568</v>
       </c>
       <c r="D4">
-        <v>0.0005359160907458804</v>
+        <v>0.0001990096585942069</v>
       </c>
       <c r="E4">
-        <v>1.181899225866502</v>
+        <v>0.3433846769561768</v>
       </c>
       <c r="F4">
-        <v>1.10504745481542</v>
+        <v>0.5320651601840893</v>
       </c>
       <c r="G4">
-        <v>1.143911410703993</v>
+        <v>0.4379383000529629</v>
       </c>
       <c r="H4">
-        <v>0.5701128960520805</v>
+        <v>0.4406200446956348</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969423061</v>
+        <v>2.371325805375761</v>
       </c>
       <c r="O4">
-        <v>3.57346229737999</v>
+        <v>1.704272837477333</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.11672838200775</v>
+        <v>0.04002112976345984</v>
       </c>
       <c r="D5">
-        <v>0.0005031721033910141</v>
+        <v>0.0001955709880077094</v>
       </c>
       <c r="E5">
-        <v>1.128062344840771</v>
+        <v>0.3295384505563845</v>
       </c>
       <c r="F5">
-        <v>1.058511772599587</v>
+        <v>0.5206045375284276</v>
       </c>
       <c r="G5">
-        <v>1.094289171362476</v>
+        <v>0.4251727262033285</v>
       </c>
       <c r="H5">
-        <v>0.5482838683211639</v>
+        <v>0.4358924360248295</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810286</v>
+        <v>2.293303068607429</v>
       </c>
       <c r="O5">
-        <v>3.422440297432843</v>
+        <v>1.667196503579476</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1158525928203886</v>
+        <v>0.03978302949464307</v>
       </c>
       <c r="D6">
-        <v>0.0004978558876973516</v>
+        <v>0.000195000981014104</v>
       </c>
       <c r="E6">
-        <v>1.119163788280403</v>
+        <v>0.327240901457813</v>
       </c>
       <c r="F6">
-        <v>1.050811200407281</v>
+        <v>0.5187068634029828</v>
       </c>
       <c r="G6">
-        <v>1.08607649855557</v>
+        <v>0.4230568104949839</v>
       </c>
       <c r="H6">
-        <v>0.5446744620097377</v>
+        <v>0.4351119378590909</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>2.280343261403573</v>
       </c>
       <c r="O6">
-        <v>3.397452337260461</v>
+        <v>1.661057262505437</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.121944627348995</v>
+        <v>0.04143716640180628</v>
       </c>
       <c r="D7">
-        <v>0.0005354661119691961</v>
+        <v>0.0001989632145475984</v>
       </c>
       <c r="E7">
-        <v>1.181170330750064</v>
+        <v>0.3431978325289862</v>
       </c>
       <c r="F7">
-        <v>1.10441802891647</v>
+        <v>0.5319102387528574</v>
       </c>
       <c r="G7">
-        <v>1.143240326169916</v>
+        <v>0.4377658837299805</v>
       </c>
       <c r="H7">
-        <v>0.5698174554598552</v>
+        <v>0.4405559834186477</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>2.370273851395496</v>
       </c>
       <c r="O7">
-        <v>3.571419440487261</v>
+        <v>1.703771654249749</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1491972113657738</v>
+        <v>0.04877327908289431</v>
       </c>
       <c r="D8">
-        <v>0.0007222109979814206</v>
+        <v>0.0002166326728543222</v>
       </c>
       <c r="E8">
-        <v>1.46169196966035</v>
+        <v>0.4138639980941292</v>
       </c>
       <c r="F8">
-        <v>1.345334653042116</v>
+        <v>0.5909583477640865</v>
       </c>
       <c r="G8">
-        <v>1.399960810394191</v>
+        <v>0.5032336662155217</v>
       </c>
       <c r="H8">
-        <v>0.6832367467129075</v>
+        <v>0.4652387236575066</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592813</v>
+        <v>2.766433886209654</v>
       </c>
       <c r="O8">
-        <v>4.353705122039003</v>
+        <v>1.894791391600563</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2044568564859048</v>
+        <v>0.06329817106426106</v>
       </c>
       <c r="D9">
-        <v>0.001200558151038811</v>
+        <v>0.0002523725686081058</v>
       </c>
       <c r="E9">
-        <v>2.047072157524553</v>
+        <v>0.5535289322776578</v>
       </c>
       <c r="F9">
-        <v>1.838748340527673</v>
+        <v>0.7096393624568123</v>
       </c>
       <c r="G9">
-        <v>1.925268169828087</v>
+        <v>0.6337105273447037</v>
       </c>
       <c r="H9">
-        <v>0.9172050607766096</v>
+        <v>0.5160408099667677</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550675</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
-        <v>5.958210129437532</v>
+        <v>2.278712888236214</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2466935326657165</v>
+        <v>0.07406179888684505</v>
       </c>
       <c r="D10">
-        <v>0.001665928837144559</v>
+        <v>0.000279711252257675</v>
       </c>
       <c r="E10">
-        <v>2.510691302386903</v>
+        <v>0.6569889858713083</v>
       </c>
       <c r="F10">
-        <v>2.219875943706427</v>
+        <v>0.7986707726857531</v>
       </c>
       <c r="G10">
-        <v>2.330962373727402</v>
+        <v>0.7309386318265467</v>
       </c>
       <c r="H10">
-        <v>1.09909916184327</v>
+        <v>0.5548613196053509</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837513</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
-        <v>7.199767712873609</v>
+        <v>2.566730516189295</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2663997739901163</v>
+        <v>0.07898017322646922</v>
       </c>
       <c r="D11">
-        <v>0.001915683333007623</v>
+        <v>0.0002924779473816308</v>
       </c>
       <c r="E11">
-        <v>2.732207894186843</v>
+        <v>0.7042806635774355</v>
       </c>
       <c r="F11">
-        <v>2.398828895108991</v>
+        <v>0.8395893270043473</v>
       </c>
       <c r="G11">
-        <v>2.521496307624062</v>
+        <v>0.7754870784960133</v>
       </c>
       <c r="H11">
-        <v>1.184794111419905</v>
+        <v>0.5728542709317139</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731751</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
-        <v>7.783400823173906</v>
+        <v>2.699107961274422</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2739459154648216</v>
+        <v>0.08084590513031742</v>
       </c>
       <c r="D12">
-        <v>0.002017159606958918</v>
+        <v>0.0002973680175808457</v>
       </c>
       <c r="E12">
-        <v>2.817957909843159</v>
+        <v>0.7222246361523901</v>
       </c>
       <c r="F12">
-        <v>2.467544679729741</v>
+        <v>0.8551453888328808</v>
       </c>
       <c r="G12">
-        <v>2.594671883425718</v>
+        <v>0.7924037097205883</v>
       </c>
       <c r="H12">
-        <v>1.217744867605148</v>
+        <v>0.5797161956365926</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>4.460285735714251</v>
       </c>
       <c r="O12">
-        <v>8.007626460111851</v>
+        <v>2.749435134041391</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.272316765430503</v>
+        <v>0.08044394031165325</v>
       </c>
       <c r="D13">
-        <v>0.00199497183356212</v>
+        <v>0.0002963122483514713</v>
       </c>
       <c r="E13">
-        <v>2.79940097717467</v>
+        <v>0.71835844768475</v>
       </c>
       <c r="F13">
-        <v>2.452700644388059</v>
+        <v>0.8517923789561905</v>
       </c>
       <c r="G13">
-        <v>2.578863761051196</v>
+        <v>0.788758295682527</v>
       </c>
       <c r="H13">
-        <v>1.210624768791206</v>
+        <v>0.5782361981204076</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.2615545799186</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
-        <v>7.959183500102256</v>
+        <v>2.738587381443438</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2670188391476955</v>
+        <v>0.0791336024293372</v>
       </c>
       <c r="D14">
-        <v>0.001923884253223873</v>
+        <v>0.0002928790944050075</v>
       </c>
       <c r="E14">
-        <v>2.739223011611116</v>
+        <v>0.705756193525616</v>
       </c>
       <c r="F14">
-        <v>2.404462211913071</v>
+        <v>0.8408679032461208</v>
       </c>
       <c r="G14">
-        <v>2.527494942718334</v>
+        <v>0.776877868763421</v>
       </c>
       <c r="H14">
-        <v>1.187494495969048</v>
+        <v>0.5734178332718614</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796559</v>
+        <v>4.371107314139522</v>
       </c>
       <c r="O14">
-        <v>7.801780359757856</v>
+        <v>2.703244404860413</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2637850368220427</v>
+        <v>0.07833140874255662</v>
       </c>
       <c r="D15">
-        <v>0.001881287360307127</v>
+        <v>0.0002907836756118609</v>
       </c>
       <c r="E15">
-        <v>2.702616540131217</v>
+        <v>0.6980416793989974</v>
       </c>
       <c r="F15">
-        <v>2.375043301035859</v>
+        <v>0.8341843332764398</v>
       </c>
       <c r="G15">
-        <v>2.496168782648425</v>
+        <v>0.76960693541767</v>
       </c>
       <c r="H15">
-        <v>1.173394083632843</v>
+        <v>0.5704727604213815</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193851</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
-        <v>7.705801621844842</v>
+        <v>2.681621796540469</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2454166663305699</v>
+        <v>0.07374082122164793</v>
       </c>
       <c r="D16">
-        <v>0.001650487615685536</v>
+        <v>0.0002788842498977484</v>
       </c>
       <c r="E16">
-        <v>2.496455913496661</v>
+        <v>0.653903188055736</v>
       </c>
       <c r="F16">
-        <v>2.208305345196521</v>
+        <v>0.7960051418863969</v>
       </c>
       <c r="G16">
-        <v>2.318644397300517</v>
+        <v>0.7280338090902205</v>
       </c>
       <c r="H16">
-        <v>1.093564380942126</v>
+        <v>0.5536921836557838</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560724</v>
+        <v>4.089429168003562</v>
       </c>
       <c r="O16">
-        <v>7.162046708924834</v>
+        <v>2.558106947690987</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2342831362164191</v>
+        <v>0.07093033230552237</v>
       </c>
       <c r="D17">
-        <v>0.001519568058005571</v>
+        <v>0.0002716745862141323</v>
       </c>
       <c r="E17">
-        <v>2.372924424841216</v>
+        <v>0.6268859407979761</v>
       </c>
       <c r="F17">
-        <v>2.107544109263927</v>
+        <v>0.7726911580841289</v>
       </c>
       <c r="G17">
-        <v>2.211380449953907</v>
+        <v>0.7026125999634871</v>
       </c>
       <c r="H17">
-        <v>1.045397530264637</v>
+        <v>0.5434835327375822</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>3.94211849063862</v>
       </c>
       <c r="O17">
-        <v>6.833634345312589</v>
+        <v>2.482684641670062</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.227924915860811</v>
+        <v>0.06931587337896872</v>
       </c>
       <c r="D18">
-        <v>0.001447746894861046</v>
+        <v>0.0002675583527864678</v>
       </c>
       <c r="E18">
-        <v>2.302847725260563</v>
+        <v>0.6113675376912369</v>
       </c>
       <c r="F18">
-        <v>2.050103710398403</v>
+        <v>0.7593208267845597</v>
       </c>
       <c r="G18">
-        <v>2.150236926957291</v>
+        <v>0.6880209333433243</v>
       </c>
       <c r="H18">
-        <v>1.017965804266311</v>
+        <v>0.5376431314455488</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.55149949033284</v>
+        <v>3.857331695637754</v>
       </c>
       <c r="O18">
-        <v>6.646479369480517</v>
+        <v>2.439431214395086</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2257795766696802</v>
+        <v>0.0687695962650281</v>
       </c>
       <c r="D19">
-        <v>0.001423988621739758</v>
+        <v>0.0002661696763892607</v>
       </c>
       <c r="E19">
-        <v>2.279279107076505</v>
+        <v>0.6061168248240705</v>
       </c>
       <c r="F19">
-        <v>2.03073961993266</v>
+        <v>0.7548005734839478</v>
       </c>
       <c r="G19">
-        <v>2.129624943839673</v>
+        <v>0.6830855503779674</v>
       </c>
       <c r="H19">
-        <v>1.008722580316629</v>
+        <v>0.5356710416518524</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.4671646587006</v>
+        <v>3.828614786364199</v>
       </c>
       <c r="O19">
-        <v>6.583396357986373</v>
+        <v>2.424808134334342</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2354635226565733</v>
+        <v>0.07122929976881665</v>
       </c>
       <c r="D20">
-        <v>0.00153313510515507</v>
+        <v>0.0002724388452903792</v>
       </c>
       <c r="E20">
-        <v>2.385971352643637</v>
+        <v>0.6297597570736997</v>
       </c>
       <c r="F20">
-        <v>2.118216028934114</v>
+        <v>0.7751689012727923</v>
       </c>
       <c r="G20">
-        <v>2.22274065114533</v>
+        <v>0.7053156233760376</v>
       </c>
       <c r="H20">
-        <v>1.050496250780753</v>
+        <v>0.5445670137242189</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>3.95780600327754</v>
       </c>
       <c r="O20">
-        <v>6.8684109743661</v>
+        <v>2.490700254398519</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2685725815508562</v>
+        <v>0.07951839145849249</v>
       </c>
       <c r="D21">
-        <v>0.001944564180354158</v>
+        <v>0.0002938859195724675</v>
       </c>
       <c r="E21">
-        <v>2.756845047937389</v>
+        <v>0.7094567898753752</v>
       </c>
       <c r="F21">
-        <v>2.418603928241652</v>
+        <v>0.8440750202745733</v>
       </c>
       <c r="G21">
-        <v>2.542553970381476</v>
+        <v>0.7803661498241468</v>
       </c>
       <c r="H21">
-        <v>1.194274189295356</v>
+        <v>0.574831787014972</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709377</v>
+        <v>4.391158149571083</v>
       </c>
       <c r="O21">
-        <v>7.847921759980125</v>
+        <v>2.713620071985645</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2907071650736412</v>
+        <v>0.08495478170114268</v>
       </c>
       <c r="D22">
-        <v>0.002254582338931721</v>
+        <v>0.0003082308938353595</v>
       </c>
       <c r="E22">
-        <v>3.010319739583622</v>
+        <v>0.7617525596761112</v>
       </c>
       <c r="F22">
-        <v>2.62054894697944</v>
+        <v>0.8894657372637198</v>
       </c>
       <c r="G22">
-        <v>2.757637449057967</v>
+        <v>0.8296911384626071</v>
       </c>
       <c r="H22">
-        <v>1.291199280796235</v>
+        <v>0.5948938050911465</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.95085643057945</v>
+        <v>4.67379181795809</v>
       </c>
       <c r="O22">
-        <v>8.507130627983884</v>
+        <v>2.860470985179404</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2788433801042913</v>
+        <v>0.08205150890684365</v>
       </c>
       <c r="D23">
-        <v>0.002084797735940391</v>
+        <v>0.0003005419286825628</v>
       </c>
       <c r="E23">
-        <v>2.873890840097161</v>
+        <v>0.7338211921436084</v>
       </c>
       <c r="F23">
-        <v>2.51219743276171</v>
+        <v>0.8652068872279415</v>
       </c>
       <c r="G23">
-        <v>2.642227108740485</v>
+        <v>0.8033398739482038</v>
       </c>
       <c r="H23">
-        <v>1.239169762788748</v>
+        <v>0.5841603510018558</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>4.523002190001307</v>
       </c>
       <c r="O23">
-        <v>8.153367650803489</v>
+        <v>2.781986552202113</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2349297382321964</v>
+        <v>0.07109413244812401</v>
       </c>
       <c r="D24">
-        <v>0.001526990812141582</v>
+        <v>0.0002720932351916172</v>
       </c>
       <c r="E24">
-        <v>2.380069923486857</v>
+        <v>0.6284604608163988</v>
       </c>
       <c r="F24">
-        <v>2.113389743152666</v>
+        <v>0.7740486102795359</v>
       </c>
       <c r="G24">
-        <v>2.217603084283695</v>
+        <v>0.7040935139324915</v>
       </c>
       <c r="H24">
-        <v>1.048190314840554</v>
+        <v>0.5440770826470498</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82576172529139</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
-        <v>6.852683346838091</v>
+        <v>2.487076060191782</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1892619663243948</v>
+        <v>0.0593531637428697</v>
       </c>
       <c r="D25">
-        <v>0.001054976978505762</v>
+        <v>0.0002425453255574528</v>
       </c>
       <c r="E25">
-        <v>1.883804834416694</v>
+        <v>0.5156103763282829</v>
       </c>
       <c r="F25">
-        <v>1.702462287547846</v>
+        <v>0.6772160331683352</v>
       </c>
       <c r="G25">
-        <v>1.78020224911964</v>
+        <v>0.5981795963497234</v>
       </c>
       <c r="H25">
-        <v>0.8523906442427176</v>
+        <v>0.5020371973616591</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.00683856119241</v>
+        <v>3.331249627311138</v>
       </c>
       <c r="O25">
-        <v>5.514713072742325</v>
+        <v>2.173826014020051</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_190/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_190/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0507701114283492</v>
+        <v>0.1566866180418458</v>
       </c>
       <c r="D2">
-        <v>0.0002214791267642902</v>
+        <v>0.0007790016065403194</v>
       </c>
       <c r="E2">
-        <v>0.4330778936147368</v>
+        <v>1.539702346963594</v>
       </c>
       <c r="F2">
-        <v>0.6071500647315276</v>
+        <v>1.411838194398896</v>
       </c>
       <c r="G2">
-        <v>0.5211106091079785</v>
+        <v>1.470788636571314</v>
       </c>
       <c r="H2">
-        <v>0.4720876509364018</v>
+        <v>0.7146522364114389</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696344</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
-        <v>1.947170118530437</v>
+        <v>4.569781030130173</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0449891660834254</v>
+        <v>0.1350901182876214</v>
       </c>
       <c r="D3">
-        <v>0.0002074950308945667</v>
+        <v>0.0006217117500109115</v>
       </c>
       <c r="E3">
-        <v>0.3774308521777527</v>
+        <v>1.315835099816098</v>
       </c>
       <c r="F3">
-        <v>0.5604074233862946</v>
+        <v>1.220407820569562</v>
       </c>
       <c r="G3">
-        <v>0.4694198853888736</v>
+        <v>1.266870858494229</v>
       </c>
       <c r="H3">
-        <v>0.4524053179119107</v>
+        <v>0.6243425658030048</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679454</v>
+        <v>6.749683652115209</v>
       </c>
       <c r="O3">
-        <v>1.795960797759165</v>
+        <v>3.947959874792616</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04145654160221568</v>
+        <v>0.1220160928853034</v>
       </c>
       <c r="D4">
-        <v>0.0001990096585942069</v>
+        <v>0.0005359160906677207</v>
       </c>
       <c r="E4">
-        <v>0.3433846769561768</v>
+        <v>1.18189922586653</v>
       </c>
       <c r="F4">
-        <v>0.5320651601840893</v>
+        <v>1.10504745481542</v>
       </c>
       <c r="G4">
-        <v>0.4379383000529629</v>
+        <v>1.143911410703993</v>
       </c>
       <c r="H4">
-        <v>0.4406200446956348</v>
+        <v>0.5701128960520805</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375761</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
-        <v>1.704272837477333</v>
+        <v>3.57346229737999</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04002112976345984</v>
+        <v>0.11672838200775</v>
       </c>
       <c r="D5">
-        <v>0.0001955709880077094</v>
+        <v>0.0005031721033981196</v>
       </c>
       <c r="E5">
-        <v>0.3295384505563845</v>
+        <v>1.128062344840757</v>
       </c>
       <c r="F5">
-        <v>0.5206045375284276</v>
+        <v>1.058511772599573</v>
       </c>
       <c r="G5">
-        <v>0.4251727262033285</v>
+        <v>1.094289171362448</v>
       </c>
       <c r="H5">
-        <v>0.4358924360248295</v>
+        <v>0.5482838683211355</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068607429</v>
+        <v>5.958052239810399</v>
       </c>
       <c r="O5">
-        <v>1.667196503579476</v>
+        <v>3.422440297432786</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03978302949464307</v>
+        <v>0.1158525928203886</v>
       </c>
       <c r="D6">
-        <v>0.000195000981014104</v>
+        <v>0.0004978558878760975</v>
       </c>
       <c r="E6">
-        <v>0.327240901457813</v>
+        <v>1.119163788280432</v>
       </c>
       <c r="F6">
-        <v>0.5187068634029828</v>
+        <v>1.05081120040731</v>
       </c>
       <c r="G6">
-        <v>0.4230568104949839</v>
+        <v>1.086076498555599</v>
       </c>
       <c r="H6">
-        <v>0.4351119378590909</v>
+        <v>0.5446744620097377</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.280343261403573</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
-        <v>1.661057262505437</v>
+        <v>3.397452337260461</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04143716640180628</v>
+        <v>0.1219446273489808</v>
       </c>
       <c r="D7">
-        <v>0.0001989632145475984</v>
+        <v>0.0005354661117413784</v>
       </c>
       <c r="E7">
-        <v>0.3431978325289862</v>
+        <v>1.181170330750064</v>
       </c>
       <c r="F7">
-        <v>0.5319102387528574</v>
+        <v>1.10441802891647</v>
       </c>
       <c r="G7">
-        <v>0.4377658837299805</v>
+        <v>1.143240326169888</v>
       </c>
       <c r="H7">
-        <v>0.4405559834186477</v>
+        <v>0.5698174554598552</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851395496</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
-        <v>1.703771654249749</v>
+        <v>3.571419440487261</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04877327908289431</v>
+        <v>0.1491972113657738</v>
       </c>
       <c r="D8">
-        <v>0.0002166326728543222</v>
+        <v>0.0007222109977569335</v>
       </c>
       <c r="E8">
-        <v>0.4138639980941292</v>
+        <v>1.461691969660336</v>
       </c>
       <c r="F8">
-        <v>0.5909583477640865</v>
+        <v>1.345334653042116</v>
       </c>
       <c r="G8">
-        <v>0.5032336662155217</v>
+        <v>1.399960810394248</v>
       </c>
       <c r="H8">
-        <v>0.4652387236575066</v>
+        <v>0.6832367467129075</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209654</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O8">
-        <v>1.894791391600563</v>
+        <v>4.353705122039003</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06329817106426106</v>
+        <v>0.2044568564854785</v>
       </c>
       <c r="D9">
-        <v>0.0002523725686081058</v>
+        <v>0.001200558150945774</v>
       </c>
       <c r="E9">
-        <v>0.5535289322776578</v>
+        <v>2.047072157524539</v>
       </c>
       <c r="F9">
-        <v>0.7096393624568123</v>
+        <v>1.838748340527673</v>
       </c>
       <c r="G9">
-        <v>0.6337105273447037</v>
+        <v>1.925268169828058</v>
       </c>
       <c r="H9">
-        <v>0.5160408099667677</v>
+        <v>0.917205060776638</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>9.620230281550619</v>
       </c>
       <c r="O9">
-        <v>2.278712888236214</v>
+        <v>5.958210129437589</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07406179888684505</v>
+        <v>0.2466935326655317</v>
       </c>
       <c r="D10">
-        <v>0.000279711252257675</v>
+        <v>0.00166592883715122</v>
       </c>
       <c r="E10">
-        <v>0.6569889858713083</v>
+        <v>2.51069130238686</v>
       </c>
       <c r="F10">
-        <v>0.7986707726857531</v>
+        <v>2.219875943706413</v>
       </c>
       <c r="G10">
-        <v>0.7309386318265467</v>
+        <v>2.330962373727459</v>
       </c>
       <c r="H10">
-        <v>0.5548613196053509</v>
+        <v>1.099099161843355</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>11.28258838837513</v>
       </c>
       <c r="O10">
-        <v>2.566730516189295</v>
+        <v>7.199767712873609</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07898017322646922</v>
+        <v>0.2663997739905284</v>
       </c>
       <c r="D11">
-        <v>0.0002924779473816308</v>
+        <v>0.001915683332901486</v>
       </c>
       <c r="E11">
-        <v>0.7042806635774355</v>
+        <v>2.732207894186843</v>
       </c>
       <c r="F11">
-        <v>0.8395893270043473</v>
+        <v>2.398828895108977</v>
       </c>
       <c r="G11">
-        <v>0.7754870784960133</v>
+        <v>2.521496307624176</v>
       </c>
       <c r="H11">
-        <v>0.5728542709317139</v>
+        <v>1.184794111419876</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>12.03742316731768</v>
       </c>
       <c r="O11">
-        <v>2.699107961274422</v>
+        <v>7.783400823173906</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08084590513031742</v>
+        <v>0.2739459154645942</v>
       </c>
       <c r="D12">
-        <v>0.0002973680175808457</v>
+        <v>0.002017159606958696</v>
       </c>
       <c r="E12">
-        <v>0.7222246361523901</v>
+        <v>2.817957909843159</v>
       </c>
       <c r="F12">
-        <v>0.8551453888328808</v>
+        <v>2.467544679729755</v>
       </c>
       <c r="G12">
-        <v>0.7924037097205883</v>
+        <v>2.594671883425747</v>
       </c>
       <c r="H12">
-        <v>0.5797161956365926</v>
+        <v>1.217744867605148</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735714251</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
-        <v>2.749435134041391</v>
+        <v>8.007626460111908</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08044394031165325</v>
+        <v>0.272316765430503</v>
       </c>
       <c r="D13">
-        <v>0.0002963122483514713</v>
+        <v>0.00199497183356967</v>
       </c>
       <c r="E13">
-        <v>0.71835844768475</v>
+        <v>2.799400977174685</v>
       </c>
       <c r="F13">
-        <v>0.8517923789561905</v>
+        <v>2.452700644388045</v>
       </c>
       <c r="G13">
-        <v>0.788758295682527</v>
+        <v>2.578863761051082</v>
       </c>
       <c r="H13">
-        <v>0.5782361981204076</v>
+        <v>1.210624768791092</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>12.26155457991871</v>
       </c>
       <c r="O13">
-        <v>2.738587381443438</v>
+        <v>7.959183500102199</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0791336024293372</v>
+        <v>0.2670188391472692</v>
       </c>
       <c r="D14">
-        <v>0.0002928790944050075</v>
+        <v>0.00192388425323009</v>
       </c>
       <c r="E14">
-        <v>0.705756193525616</v>
+        <v>2.739223011611074</v>
       </c>
       <c r="F14">
-        <v>0.8408679032461208</v>
+        <v>2.404462211913071</v>
       </c>
       <c r="G14">
-        <v>0.776877868763421</v>
+        <v>2.527494942718363</v>
       </c>
       <c r="H14">
-        <v>0.5734178332718614</v>
+        <v>1.18749449596902</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139522</v>
+        <v>12.06092695796548</v>
       </c>
       <c r="O14">
-        <v>2.703244404860413</v>
+        <v>7.801780359757799</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07833140874255662</v>
+        <v>0.2637850368218153</v>
       </c>
       <c r="D15">
-        <v>0.0002907836756118609</v>
+        <v>0.001881287360112838</v>
       </c>
       <c r="E15">
-        <v>0.6980416793989974</v>
+        <v>2.702616540131217</v>
       </c>
       <c r="F15">
-        <v>0.8341843332764398</v>
+        <v>2.375043301035845</v>
       </c>
       <c r="G15">
-        <v>0.76960693541767</v>
+        <v>2.496168782648425</v>
       </c>
       <c r="H15">
-        <v>0.5704727604213815</v>
+        <v>1.173394083632871</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>11.93801081193834</v>
       </c>
       <c r="O15">
-        <v>2.681621796540469</v>
+        <v>7.705801621844728</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07374082122164793</v>
+        <v>0.2454166663309678</v>
       </c>
       <c r="D16">
-        <v>0.0002788842498977484</v>
+        <v>0.001650487615569851</v>
       </c>
       <c r="E16">
-        <v>0.653903188055736</v>
+        <v>2.496455913496689</v>
       </c>
       <c r="F16">
-        <v>0.7960051418863969</v>
+        <v>2.208305345196536</v>
       </c>
       <c r="G16">
-        <v>0.7280338090902205</v>
+        <v>2.318644397300517</v>
       </c>
       <c r="H16">
-        <v>0.5536921836557838</v>
+        <v>1.093564380942126</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003562</v>
+        <v>11.23323027560713</v>
       </c>
       <c r="O16">
-        <v>2.558106947690987</v>
+        <v>7.16204670892489</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.07093033230552237</v>
+        <v>0.2342831362162059</v>
       </c>
       <c r="D17">
-        <v>0.0002716745862141323</v>
+        <v>0.001519568058007348</v>
       </c>
       <c r="E17">
-        <v>0.6268859407979761</v>
+        <v>2.372924424841159</v>
       </c>
       <c r="F17">
-        <v>0.7726911580841289</v>
+        <v>2.107544109263912</v>
       </c>
       <c r="G17">
-        <v>0.7026125999634871</v>
+        <v>2.21138044995385</v>
       </c>
       <c r="H17">
-        <v>0.5434835327375822</v>
+        <v>1.045397530264637</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849063862</v>
+        <v>10.80051555282938</v>
       </c>
       <c r="O17">
-        <v>2.482684641670062</v>
+        <v>6.833634345312532</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06931587337896872</v>
+        <v>0.2279249158608252</v>
       </c>
       <c r="D18">
-        <v>0.0002675583527864678</v>
+        <v>0.001447746894751356</v>
       </c>
       <c r="E18">
-        <v>0.6113675376912369</v>
+        <v>2.302847725260577</v>
       </c>
       <c r="F18">
-        <v>0.7593208267845597</v>
+        <v>2.050103710398417</v>
       </c>
       <c r="G18">
-        <v>0.6880209333433243</v>
+        <v>2.150236926957319</v>
       </c>
       <c r="H18">
-        <v>0.5376431314455488</v>
+        <v>1.017965804266311</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637754</v>
+        <v>10.5514994903329</v>
       </c>
       <c r="O18">
-        <v>2.439431214395086</v>
+        <v>6.64647936948063</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0687695962650281</v>
+        <v>0.2257795766695949</v>
       </c>
       <c r="D19">
-        <v>0.0002661696763892607</v>
+        <v>0.001423988621620298</v>
       </c>
       <c r="E19">
-        <v>0.6061168248240705</v>
+        <v>2.279279107076505</v>
       </c>
       <c r="F19">
-        <v>0.7548005734839478</v>
+        <v>2.030739619932646</v>
       </c>
       <c r="G19">
-        <v>0.6830855503779674</v>
+        <v>2.129624943839588</v>
       </c>
       <c r="H19">
-        <v>0.5356710416518524</v>
+        <v>1.008722580316714</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786364199</v>
+        <v>10.4671646587006</v>
       </c>
       <c r="O19">
-        <v>2.424808134334342</v>
+        <v>6.583396357986373</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07122929976881665</v>
+        <v>0.2354635226564028</v>
       </c>
       <c r="D20">
-        <v>0.0002724388452903792</v>
+        <v>0.001533135105262762</v>
       </c>
       <c r="E20">
-        <v>0.6297597570736997</v>
+        <v>2.385971352643622</v>
       </c>
       <c r="F20">
-        <v>0.7751689012727923</v>
+        <v>2.118216028934143</v>
       </c>
       <c r="G20">
-        <v>0.7053156233760376</v>
+        <v>2.22274065114533</v>
       </c>
       <c r="H20">
-        <v>0.5445670137242189</v>
+        <v>1.050496250780782</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.95780600327754</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
-        <v>2.490700254398519</v>
+        <v>6.8684109743661</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07951839145849249</v>
+        <v>0.2685725815508846</v>
       </c>
       <c r="D21">
-        <v>0.0002938859195724675</v>
+        <v>0.001944564180572206</v>
       </c>
       <c r="E21">
-        <v>0.7094567898753752</v>
+        <v>2.756845047937375</v>
       </c>
       <c r="F21">
-        <v>0.8440750202745733</v>
+        <v>2.418603928241652</v>
       </c>
       <c r="G21">
-        <v>0.7803661498241468</v>
+        <v>2.542553970381476</v>
       </c>
       <c r="H21">
-        <v>0.574831787014972</v>
+        <v>1.194274189295356</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571083</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O21">
-        <v>2.713620071985645</v>
+        <v>7.847921759980068</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08495478170114268</v>
+        <v>0.2907071650738544</v>
       </c>
       <c r="D22">
-        <v>0.0003082308938353595</v>
+        <v>0.002254582339042077</v>
       </c>
       <c r="E22">
-        <v>0.7617525596761112</v>
+        <v>3.010319739583608</v>
       </c>
       <c r="F22">
-        <v>0.8894657372637198</v>
+        <v>2.620548946979426</v>
       </c>
       <c r="G22">
-        <v>0.8296911384626071</v>
+        <v>2.75763744905791</v>
       </c>
       <c r="H22">
-        <v>0.5948938050911465</v>
+        <v>1.291199280796235</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.67379181795809</v>
+        <v>12.95085643057962</v>
       </c>
       <c r="O22">
-        <v>2.860470985179404</v>
+        <v>8.50713062798394</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08205150890684365</v>
+        <v>0.278843380103865</v>
       </c>
       <c r="D23">
-        <v>0.0003005419286825628</v>
+        <v>0.002084797735735888</v>
       </c>
       <c r="E23">
-        <v>0.7338211921436084</v>
+        <v>2.873890840097175</v>
       </c>
       <c r="F23">
-        <v>0.8652068872279415</v>
+        <v>2.512197432761681</v>
       </c>
       <c r="G23">
-        <v>0.8033398739482038</v>
+        <v>2.642227108740542</v>
       </c>
       <c r="H23">
-        <v>0.5841603510018558</v>
+        <v>1.239169762788634</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190001307</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
-        <v>2.781986552202113</v>
+        <v>8.153367650803375</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.07109413244812401</v>
+        <v>0.2349297382324096</v>
       </c>
       <c r="D24">
-        <v>0.0002720932351916172</v>
+        <v>0.001526990812347195</v>
       </c>
       <c r="E24">
-        <v>0.6284604608163988</v>
+        <v>2.380069923486843</v>
       </c>
       <c r="F24">
-        <v>0.7740486102795359</v>
+        <v>2.113389743152652</v>
       </c>
       <c r="G24">
-        <v>0.7040935139324915</v>
+        <v>2.217603084283581</v>
       </c>
       <c r="H24">
-        <v>0.5440770826470498</v>
+        <v>1.048190314840411</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
-        <v>2.487076060191782</v>
+        <v>6.852683346838091</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0593531637428697</v>
+        <v>0.1892619663241106</v>
       </c>
       <c r="D25">
-        <v>0.0002425453255574528</v>
+        <v>0.001054976978572153</v>
       </c>
       <c r="E25">
-        <v>0.5156103763282829</v>
+        <v>1.883804834416679</v>
       </c>
       <c r="F25">
-        <v>0.6772160331683352</v>
+        <v>1.702462287547846</v>
       </c>
       <c r="G25">
-        <v>0.5981795963497234</v>
+        <v>1.780202249119725</v>
       </c>
       <c r="H25">
-        <v>0.5020371973616591</v>
+        <v>0.8523906442427176</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311138</v>
+        <v>9.00683856119241</v>
       </c>
       <c r="O25">
-        <v>2.173826014020051</v>
+        <v>5.514713072742325</v>
       </c>
     </row>
   </sheetData>
